--- a/out_bd_rate/excel/bdr_BasketballDrive_intra.xlsx
+++ b/out_bd_rate/excel/bdr_BasketballDrive_intra.xlsx
@@ -19,37 +19,37 @@
     <t>bd_rate</t>
   </si>
   <si>
+    <t>4x4-1-8x8-1</t>
+  </si>
+  <si>
     <t>4x4-1-8x8-2</t>
   </si>
   <si>
+    <t>4x4-1-8x8-3</t>
+  </si>
+  <si>
+    <t>4x4-1-8x8-SAD</t>
+  </si>
+  <si>
+    <t>4x4-2-8x8-4</t>
+  </si>
+  <si>
     <t>4x4-3-8x8-SAD</t>
   </si>
   <si>
     <t>4x4-3</t>
   </si>
   <si>
-    <t>4x4-1-8x8-SAD</t>
+    <t>8x8-1</t>
+  </si>
+  <si>
+    <t>8x8-2</t>
   </si>
   <si>
     <t>8x8-3</t>
   </si>
   <si>
-    <t>8x8-1</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-1</t>
-  </si>
-  <si>
     <t>8x8-SAD</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-3</t>
-  </si>
-  <si>
-    <t>4x4-2-8x8-4</t>
-  </si>
-  <si>
-    <t>8x8-2</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1886637707617878</v>
+        <v>0.1554606168490125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.004486946842852113</v>
+        <v>0.1554606168490125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2078860622158674</v>
+        <v>0.2078860622160228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1345776013521593</v>
+        <v>0.1554606168490125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.08403996167998251</v>
+        <v>0.1886637707617878</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1554606168490125</v>
+        <v>-0.004486946842852113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1991053171814583</v>
+        <v>0.08403996167998251</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1554606168490125</v>
+        <v>0.1128915056214375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1554606168490125</v>
+        <v>0.1345776013521593</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1128915056214375</v>
+        <v>0.1991053171814583</v>
       </c>
     </row>
   </sheetData>
